--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nlgn2-Nrxn2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.580781333333334</v>
+        <v>3.258986</v>
       </c>
       <c r="H2">
-        <v>7.742344000000001</v>
+        <v>9.776958</v>
       </c>
       <c r="I2">
-        <v>0.09250274102763281</v>
+        <v>0.0928452675546778</v>
       </c>
       <c r="J2">
-        <v>0.09250274102763281</v>
+        <v>0.09284526755467781</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09268433333333333</v>
+        <v>0.04996866666666667</v>
       </c>
       <c r="N2">
-        <v>0.278053</v>
+        <v>0.149906</v>
       </c>
       <c r="O2">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220302</v>
       </c>
       <c r="P2">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220301</v>
       </c>
       <c r="Q2">
-        <v>0.2391979973591112</v>
+        <v>0.1628471851053334</v>
       </c>
       <c r="R2">
-        <v>2.152781976232</v>
+        <v>1.465624665948</v>
       </c>
       <c r="S2">
-        <v>0.009624289946677267</v>
+        <v>0.006342308437698212</v>
       </c>
       <c r="T2">
-        <v>0.009624289946677267</v>
+        <v>0.006342308437698211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.580781333333334</v>
+        <v>3.258986</v>
       </c>
       <c r="H3">
-        <v>7.742344000000001</v>
+        <v>9.776958</v>
       </c>
       <c r="I3">
-        <v>0.09250274102763281</v>
+        <v>0.0928452675546778</v>
       </c>
       <c r="J3">
-        <v>0.09250274102763281</v>
+        <v>0.09284526755467781</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.7696</v>
       </c>
       <c r="O3">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518528</v>
       </c>
       <c r="P3">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518527</v>
       </c>
       <c r="Q3">
-        <v>1.522316882488889</v>
+        <v>1.922367208533333</v>
       </c>
       <c r="R3">
-        <v>13.7008519424</v>
+        <v>17.3013048768</v>
       </c>
       <c r="S3">
-        <v>0.06125142864720069</v>
+        <v>0.07486924480241453</v>
       </c>
       <c r="T3">
-        <v>0.06125142864720069</v>
+        <v>0.07486924480241453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.580781333333334</v>
+        <v>3.258986</v>
       </c>
       <c r="H4">
-        <v>7.742344000000001</v>
+        <v>9.776958</v>
       </c>
       <c r="I4">
-        <v>0.09250274102763281</v>
+        <v>0.0928452675546778</v>
       </c>
       <c r="J4">
-        <v>0.09250274102763281</v>
+        <v>0.09284526755467781</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2082736666666667</v>
+        <v>0.09165766666666668</v>
       </c>
       <c r="N4">
-        <v>0.6248210000000001</v>
+        <v>0.274973</v>
       </c>
       <c r="O4">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="P4">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="Q4">
-        <v>0.5375087911582224</v>
+        <v>0.2987110524593334</v>
       </c>
       <c r="R4">
-        <v>4.837579120424001</v>
+        <v>2.688399472134</v>
       </c>
       <c r="S4">
-        <v>0.02162702243375485</v>
+        <v>0.01163371431456506</v>
       </c>
       <c r="T4">
-        <v>0.02162702243375485</v>
+        <v>0.01163371431456506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>62.40418999999999</v>
       </c>
       <c r="I5">
-        <v>0.7455828140172009</v>
+        <v>0.5926110879358332</v>
       </c>
       <c r="J5">
-        <v>0.7455828140172009</v>
+        <v>0.5926110879358333</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09268433333333333</v>
+        <v>0.04996866666666667</v>
       </c>
       <c r="N5">
-        <v>0.278053</v>
+        <v>0.149906</v>
       </c>
       <c r="O5">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220302</v>
       </c>
       <c r="P5">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220301</v>
       </c>
       <c r="Q5">
-        <v>1.927963582452222</v>
+        <v>1.039418056237778</v>
       </c>
       <c r="R5">
-        <v>17.35167224207</v>
+        <v>9.35476250614</v>
       </c>
       <c r="S5">
-        <v>0.07757289245318186</v>
+        <v>0.04048157113743582</v>
       </c>
       <c r="T5">
-        <v>0.07757289245318186</v>
+        <v>0.04048157113743582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>62.40418999999999</v>
       </c>
       <c r="I6">
-        <v>0.7455828140172009</v>
+        <v>0.5926110879358332</v>
       </c>
       <c r="J6">
-        <v>0.7455828140172009</v>
+        <v>0.5926110879358333</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>1.7696</v>
       </c>
       <c r="O6">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518528</v>
       </c>
       <c r="P6">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518527</v>
       </c>
       <c r="Q6">
         <v>12.27005051377778</v>
@@ -821,10 +821,10 @@
         <v>110.430454624</v>
       </c>
       <c r="S6">
-        <v>0.4936936141136784</v>
+        <v>0.4778740563073287</v>
       </c>
       <c r="T6">
-        <v>0.4936936141136784</v>
+        <v>0.4778740563073287</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>62.40418999999999</v>
       </c>
       <c r="I7">
-        <v>0.7455828140172009</v>
+        <v>0.5926110879358332</v>
       </c>
       <c r="J7">
-        <v>0.7455828140172009</v>
+        <v>0.5926110879358333</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2082736666666667</v>
+        <v>0.09165766666666668</v>
       </c>
       <c r="N7">
-        <v>0.6248210000000001</v>
+        <v>0.274973</v>
       </c>
       <c r="O7">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="P7">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="Q7">
-        <v>4.332383155554445</v>
+        <v>1.906607481874445</v>
       </c>
       <c r="R7">
-        <v>38.99144839999</v>
+        <v>17.15946733687</v>
       </c>
       <c r="S7">
-        <v>0.1743163074503406</v>
+        <v>0.07425546049106868</v>
       </c>
       <c r="T7">
-        <v>0.1743163074503406</v>
+        <v>0.07425546049106867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.212175</v>
+        <v>10.70406433333333</v>
       </c>
       <c r="H8">
-        <v>12.636525</v>
+        <v>32.112193</v>
       </c>
       <c r="I8">
-        <v>0.150976655075544</v>
+        <v>0.3049481393755043</v>
       </c>
       <c r="J8">
-        <v>0.150976655075544</v>
+        <v>0.3049481393755044</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.09268433333333333</v>
+        <v>0.04996866666666667</v>
       </c>
       <c r="N8">
-        <v>0.278053</v>
+        <v>0.149906</v>
       </c>
       <c r="O8">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220302</v>
       </c>
       <c r="P8">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220301</v>
       </c>
       <c r="Q8">
-        <v>0.3904026317583333</v>
+        <v>0.5348678226508889</v>
       </c>
       <c r="R8">
-        <v>3.513623685825</v>
+        <v>4.813810403858001</v>
       </c>
       <c r="S8">
-        <v>0.01570810861909984</v>
+        <v>0.02083116574878336</v>
       </c>
       <c r="T8">
-        <v>0.01570810861909984</v>
+        <v>0.02083116574878336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.212175</v>
+        <v>10.70406433333333</v>
       </c>
       <c r="H9">
-        <v>12.636525</v>
+        <v>32.112193</v>
       </c>
       <c r="I9">
-        <v>0.150976655075544</v>
+        <v>0.3049481393755043</v>
       </c>
       <c r="J9">
-        <v>0.150976655075544</v>
+        <v>0.3049481393755044</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>1.7696</v>
       </c>
       <c r="O9">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518528</v>
       </c>
       <c r="P9">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518527</v>
       </c>
       <c r="Q9">
-        <v>2.484621626666667</v>
+        <v>6.31397074808889</v>
       </c>
       <c r="R9">
-        <v>22.36159464</v>
+        <v>56.82573673280001</v>
       </c>
       <c r="S9">
-        <v>0.09997039777437784</v>
+        <v>0.2459063073462505</v>
       </c>
       <c r="T9">
-        <v>0.09997039777437784</v>
+        <v>0.2459063073462505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.212175</v>
+        <v>10.70406433333333</v>
       </c>
       <c r="H10">
-        <v>12.636525</v>
+        <v>32.112193</v>
       </c>
       <c r="I10">
-        <v>0.150976655075544</v>
+        <v>0.3049481393755043</v>
       </c>
       <c r="J10">
-        <v>0.150976655075544</v>
+        <v>0.3049481393755044</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2082736666666667</v>
+        <v>0.09165766666666668</v>
       </c>
       <c r="N10">
-        <v>0.6248210000000001</v>
+        <v>0.274973</v>
       </c>
       <c r="O10">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="P10">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="Q10">
-        <v>0.8772851318916668</v>
+        <v>0.9811095606432225</v>
       </c>
       <c r="R10">
-        <v>7.895566187025001</v>
+        <v>8.829986045789003</v>
       </c>
       <c r="S10">
-        <v>0.03529814868206631</v>
+        <v>0.03821066628047048</v>
       </c>
       <c r="T10">
-        <v>0.03529814868206631</v>
+        <v>0.03821066628047047</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.305159</v>
+        <v>0.3368143333333333</v>
       </c>
       <c r="H11">
-        <v>0.915477</v>
+        <v>1.010443</v>
       </c>
       <c r="I11">
-        <v>0.01093778987962227</v>
+        <v>0.009595505133984546</v>
       </c>
       <c r="J11">
-        <v>0.01093778987962227</v>
+        <v>0.00959550513398455</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.09268433333333333</v>
+        <v>0.04996866666666667</v>
       </c>
       <c r="N11">
-        <v>0.278053</v>
+        <v>0.149906</v>
       </c>
       <c r="O11">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220302</v>
       </c>
       <c r="P11">
-        <v>0.1040432947149345</v>
+        <v>0.06831051926220301</v>
       </c>
       <c r="Q11">
-        <v>0.02828345847566667</v>
+        <v>0.01683016315088889</v>
       </c>
       <c r="R11">
-        <v>0.254551126281</v>
+        <v>0.151471468358</v>
       </c>
       <c r="S11">
-        <v>0.001138003695975568</v>
+        <v>0.0006554739382856194</v>
       </c>
       <c r="T11">
-        <v>0.001138003695975568</v>
+        <v>0.0006554739382856195</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.305159</v>
+        <v>0.3368143333333333</v>
       </c>
       <c r="H12">
-        <v>0.915477</v>
+        <v>1.010443</v>
       </c>
       <c r="I12">
-        <v>0.01093778987962227</v>
+        <v>0.009595505133984546</v>
       </c>
       <c r="J12">
-        <v>0.01093778987962227</v>
+        <v>0.00959550513398455</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>1.7696</v>
       </c>
       <c r="O12">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518528</v>
       </c>
       <c r="P12">
-        <v>0.6621579854471923</v>
+        <v>0.8063873019518527</v>
       </c>
       <c r="Q12">
-        <v>0.1800031221333333</v>
+        <v>0.1986755480888889</v>
       </c>
       <c r="R12">
-        <v>1.6200280992</v>
+        <v>1.7880799328</v>
       </c>
       <c r="S12">
-        <v>0.007242544911935369</v>
+        <v>0.007737693495858951</v>
       </c>
       <c r="T12">
-        <v>0.007242544911935369</v>
+        <v>0.007737693495858952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.305159</v>
+        <v>0.3368143333333333</v>
       </c>
       <c r="H13">
-        <v>0.915477</v>
+        <v>1.010443</v>
       </c>
       <c r="I13">
-        <v>0.01093778987962227</v>
+        <v>0.009595505133984546</v>
       </c>
       <c r="J13">
-        <v>0.01093778987962227</v>
+        <v>0.00959550513398455</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2082736666666667</v>
+        <v>0.09165766666666668</v>
       </c>
       <c r="N13">
-        <v>0.6248210000000001</v>
+        <v>0.274973</v>
       </c>
       <c r="O13">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="P13">
-        <v>0.2337987198378731</v>
+        <v>0.1253021787859442</v>
       </c>
       <c r="Q13">
-        <v>0.06355658384633334</v>
+        <v>0.03087161589322223</v>
       </c>
       <c r="R13">
-        <v>0.572009254617</v>
+        <v>0.277844543039</v>
       </c>
       <c r="S13">
-        <v>0.002557241271711331</v>
+        <v>0.001202337699839977</v>
       </c>
       <c r="T13">
-        <v>0.00255724127171133</v>
+        <v>0.001202337699839977</v>
       </c>
     </row>
   </sheetData>
